--- a/data/trans_dic/P62A$invalidez-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,89</t>
+          <t>5,65; 14,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 20,72</t>
+          <t>10,65; 21,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,57</t>
+          <t>4,62; 12,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,97</t>
+          <t>0,89; 5,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,54</t>
+          <t>4,47; 14,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,88</t>
+          <t>4,54; 13,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,8</t>
+          <t>4,77; 14,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,65; 51,21</t>
+          <t>40,07; 50,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,44</t>
+          <t>5,8; 12,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,44</t>
+          <t>8,81; 16,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,73</t>
+          <t>5,56; 12,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 26,77</t>
+          <t>20,3; 26,5</t>
         </is>
       </c>
     </row>
@@ -864,17 +865,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 14,25</t>
+          <t>5,93; 13,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 22,87</t>
+          <t>13,1; 22,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 16,44</t>
+          <t>8,29; 16,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 15,74</t>
+          <t>5,06; 15,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,75</t>
+          <t>6,82; 16,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,13</t>
+          <t>3,98; 11,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,24; 49,29</t>
+          <t>38,62; 49,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,03</t>
+          <t>6,72; 12,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 18,1</t>
+          <t>11,4; 18,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,73</t>
+          <t>7,03; 12,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,42</t>
+          <t>18,59; 24,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 18,61</t>
+          <t>8,25; 19,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 27,19</t>
+          <t>13,64; 27,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,36</t>
+          <t>4,5; 12,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,19</t>
+          <t>0,72; 5,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 14,24</t>
+          <t>3,63; 14,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 20,31</t>
+          <t>6,65; 19,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 14,63</t>
+          <t>4,09; 14,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 36,5</t>
+          <t>3,45; 36,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 14,41</t>
+          <t>7,12; 14,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,24</t>
+          <t>12,09; 20,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,96</t>
+          <t>4,93; 11,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,71</t>
+          <t>3,87; 17,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,32</t>
+          <t>4,73; 13,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,39; 19,85</t>
+          <t>9,48; 19,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 15,1</t>
+          <t>6,87; 15,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,24</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,48</t>
+          <t>3,96; 11,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,16</t>
+          <t>7,17; 15,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,96</t>
+          <t>3,26; 9,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,37; 38,47</t>
+          <t>29,69; 38,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,23</t>
+          <t>5,53; 11,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,11</t>
+          <t>9,66; 16,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,12</t>
+          <t>5,92; 11,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 21,01</t>
+          <t>15,37; 20,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,23</t>
+          <t>7,72; 12,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,06</t>
+          <t>13,9; 19,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,89</t>
+          <t>7,78; 12,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,32</t>
+          <t>0,72; 2,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,57</t>
+          <t>6,0; 10,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,16</t>
+          <t>8,39; 13,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>5,35; 9,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,63; 40,22</t>
+          <t>15,15; 40,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,83</t>
+          <t>7,73; 10,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,68</t>
+          <t>11,9; 15,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,02</t>
+          <t>7,32; 10,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,21</t>
+          <t>11,43; 20,05</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de invalidez</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15839</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32036</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15040</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4370</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10451</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13479</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13005</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>77421</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26290</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45515</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28044</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>81791</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9663; 24746</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22511; 46296</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8746; 24414</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1606; 9805</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5666; 18182</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7441; 22103</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7120; 22111</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68156; 85750</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17270; 36582</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33068; 61531</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18836; 41091</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71069; 92750</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20677</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43050</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31201</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15101</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22760</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14272</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>81603</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35778</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65811</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45473</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>81603</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13202; 30081</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32256; 56332</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21930; 43019</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1321</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7766; 23339</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14307; 33716</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8110; 22591</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71245; 90547</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25253; 48641</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>51988; 83618</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32938; 58841</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>71122; 94154</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19574</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33770</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14510</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17614</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11480</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49577</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28415</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>51384</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25990</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53716</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12735; 29946</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23016; 45973</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8189; 23452</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1437; 10125</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4354; 17220</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9834; 28520</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5536; 19943</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11998; 126220</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19530; 39553</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38273; 65414</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15654; 37217</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21250; 93623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16002</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34093</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27557</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2639</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13018</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24556</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14847</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>79747</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29020</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58649</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42405</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82386</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8986; 26006</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23186; 46776</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18202; 39972</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7485</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6976; 20263</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16103; 34784</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8112; 24434</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69928; 90543</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20244; 41361</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45303; 77481</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>30396; 57076</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>70370; 94520</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>142949</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>88308</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78409</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>288348</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>119503</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>221358</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>141911</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>299495</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56950; 90081</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>121069; 167919</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>70139; 109097</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5744; 18124</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34552; 60976</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>62587; 97897</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39438; 68248</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>142082; 377571</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>101582; 142040</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>192494; 252181</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>119920; 168861</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>198735; 348746</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>